--- a/Search_Algorithms_Project/lib/SequentialResults.xlsx
+++ b/Search_Algorithms_Project/lib/SequentialResults.xlsx
@@ -111,16 +111,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>2097152.0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.0</v>
+        <v>1000.0</v>
       </c>
       <c r="F2" t="n">
         <v>1000.0</v>
@@ -131,16 +131,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>9.0</v>
+        <v>1000.0</v>
       </c>
       <c r="F3" t="n">
         <v>1000.0</v>
